--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H2">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I2">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J2">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N2">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O2">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P2">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q2">
-        <v>0.653101672195</v>
+        <v>0.1104423897766667</v>
       </c>
       <c r="R2">
-        <v>5.877915049755</v>
+        <v>0.9939815079900001</v>
       </c>
       <c r="S2">
-        <v>0.02215843570527719</v>
+        <v>0.002579844523066539</v>
       </c>
       <c r="T2">
-        <v>0.02622432188626814</v>
+        <v>0.003167865952526727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H3">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I3">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J3">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P3">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q3">
-        <v>2.943206402955</v>
+        <v>0.7311723674710001</v>
       </c>
       <c r="R3">
-        <v>26.488857626595</v>
+        <v>6.580551307239001</v>
       </c>
       <c r="S3">
-        <v>0.09985711662328493</v>
+        <v>0.01707959264058027</v>
       </c>
       <c r="T3">
-        <v>0.1181800558394103</v>
+        <v>0.02097252742378724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H4">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I4">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J4">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N4">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O4">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P4">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q4">
-        <v>0.3638350489200001</v>
+        <v>0.05390477879700001</v>
       </c>
       <c r="R4">
-        <v>3.274515440280001</v>
+        <v>0.4851430091730001</v>
       </c>
       <c r="S4">
-        <v>0.01234419674922082</v>
+        <v>0.001259171850842496</v>
       </c>
       <c r="T4">
-        <v>0.01460925280487629</v>
+        <v>0.001546173654652104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H5">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I5">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J5">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N5">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O5">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P5">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q5">
-        <v>2.493956160255001</v>
+        <v>0.8224254156250003</v>
       </c>
       <c r="R5">
-        <v>14.96373696153</v>
+        <v>4.934552493750001</v>
       </c>
       <c r="S5">
-        <v>0.08461495289555848</v>
+        <v>0.01921118972906488</v>
       </c>
       <c r="T5">
-        <v>0.06676072236140383</v>
+        <v>0.01572665156268052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H6">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I6">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J6">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N6">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O6">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P6">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q6">
-        <v>0.6603557270100001</v>
+        <v>0.07505707789866668</v>
       </c>
       <c r="R6">
-        <v>5.94320154309</v>
+        <v>0.6755137010880001</v>
       </c>
       <c r="S6">
-        <v>0.02240455130115449</v>
+        <v>0.00175327237780546</v>
       </c>
       <c r="T6">
-        <v>0.02651559761950864</v>
+        <v>0.002152894029657864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H7">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I7">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J7">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N7">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O7">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P7">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q7">
-        <v>0.9077308153513333</v>
+        <v>0.44456651155</v>
       </c>
       <c r="R7">
-        <v>8.169577338162</v>
+        <v>4.00109860395</v>
       </c>
       <c r="S7">
-        <v>0.03079749412072528</v>
+        <v>0.0103847126296372</v>
       </c>
       <c r="T7">
-        <v>0.03644857470331284</v>
+        <v>0.01275168998444077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H8">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I8">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J8">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P8">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q8">
-        <v>4.090694085842</v>
+        <v>2.943206402955</v>
       </c>
       <c r="R8">
-        <v>36.816246772578</v>
+        <v>26.488857626595</v>
       </c>
       <c r="S8">
-        <v>0.1387890825427618</v>
+        <v>0.06875091107927123</v>
       </c>
       <c r="T8">
-        <v>0.1642557093520106</v>
+        <v>0.0844212387474943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H9">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I9">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J9">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N9">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O9">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P9">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q9">
-        <v>0.505685867408</v>
+        <v>0.216984253185</v>
       </c>
       <c r="R9">
-        <v>4.551172806672001</v>
+        <v>1.952858278665</v>
       </c>
       <c r="S9">
-        <v>0.01715691179042319</v>
+        <v>0.005068575918204843</v>
       </c>
       <c r="T9">
-        <v>0.02030506049031309</v>
+        <v>0.006223851451324022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H10">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I10">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J10">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N10">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O10">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P10">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q10">
-        <v>3.466291628362001</v>
+        <v>3.310529578125</v>
       </c>
       <c r="R10">
-        <v>20.797749770172</v>
+        <v>19.86317746875</v>
       </c>
       <c r="S10">
-        <v>0.1176043538897373</v>
+        <v>0.07733128210867415</v>
       </c>
       <c r="T10">
-        <v>0.09278917436987852</v>
+        <v>0.06330488354807721</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H11">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I11">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J11">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N11">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O11">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P11">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q11">
-        <v>0.9178130573240001</v>
+        <v>0.30212913136</v>
       </c>
       <c r="R11">
-        <v>8.260317515916</v>
+        <v>2.71916218224</v>
       </c>
       <c r="S11">
-        <v>0.03113956445988938</v>
+        <v>0.007057491117080315</v>
       </c>
       <c r="T11">
-        <v>0.03685341206644167</v>
+        <v>0.008666098138923354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H12">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I12">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J12">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N12">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O12">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P12">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q12">
-        <v>0.3510384304213334</v>
+        <v>0.5793871963033331</v>
       </c>
       <c r="R12">
-        <v>2.106230582528</v>
+        <v>5.214484766729999</v>
       </c>
       <c r="S12">
-        <v>0.01191003303425945</v>
+        <v>0.01353401432312926</v>
       </c>
       <c r="T12">
-        <v>0.009396949138490625</v>
+        <v>0.0166188089212012</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H13">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I13">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J13">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P13">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q13">
-        <v>1.581956684672</v>
+        <v>3.835772739616999</v>
       </c>
       <c r="R13">
-        <v>9.491740108032001</v>
+        <v>34.521954656553</v>
       </c>
       <c r="S13">
-        <v>0.05367263165630329</v>
+        <v>0.08960053575479156</v>
       </c>
       <c r="T13">
-        <v>0.04234740477649602</v>
+        <v>0.1100230979068334</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4435069999999999</v>
+      </c>
+      <c r="H14">
+        <v>1.330521</v>
+      </c>
+      <c r="I14">
+        <v>0.2197210255830999</v>
+      </c>
+      <c r="J14">
+        <v>0.2285503591301722</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.182912</v>
-      </c>
-      <c r="H14">
-        <v>0.365824</v>
-      </c>
-      <c r="I14">
-        <v>0.129739974361072</v>
-      </c>
-      <c r="J14">
-        <v>0.09040294133782634</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N14">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O14">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P14">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q14">
-        <v>0.195559267328</v>
+        <v>0.282787602819</v>
       </c>
       <c r="R14">
-        <v>1.173355603968</v>
+        <v>2.545088425371</v>
       </c>
       <c r="S14">
-        <v>0.006634935471983894</v>
+        <v>0.006605688719693436</v>
       </c>
       <c r="T14">
-        <v>0.005234926803985702</v>
+        <v>0.008111316864643078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H15">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I15">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J15">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N15">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O15">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P15">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q15">
-        <v>1.340487236992</v>
+        <v>4.314491534375</v>
       </c>
       <c r="R15">
-        <v>5.361948947968002</v>
+        <v>25.88694920625</v>
       </c>
       <c r="S15">
-        <v>0.0454800554327218</v>
+        <v>0.1007830179814335</v>
       </c>
       <c r="T15">
-        <v>0.02392233878152265</v>
+        <v>0.08250292821955914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H16">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I16">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J16">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N16">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O16">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P16">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q16">
-        <v>0.354937443584</v>
+        <v>0.3937537933973332</v>
       </c>
       <c r="R16">
-        <v>2.129624661504</v>
+        <v>3.543784140576</v>
       </c>
       <c r="S16">
-        <v>0.01204231876580353</v>
+        <v>0.009197768804052068</v>
       </c>
       <c r="T16">
-        <v>0.009501321837331343</v>
+        <v>0.01129420721793532</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H17">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I17">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J17">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N17">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O17">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P17">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q17">
-        <v>0.7938366494192222</v>
+        <v>0.3056078787049999</v>
       </c>
       <c r="R17">
-        <v>7.144529844773</v>
+        <v>1.83364727223</v>
       </c>
       <c r="S17">
-        <v>0.02693329248037281</v>
+        <v>0.007138751829595487</v>
       </c>
       <c r="T17">
-        <v>0.03187532463287062</v>
+        <v>0.005843920350577951</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H18">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I18">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J18">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P18">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q18">
-        <v>3.577429378826333</v>
+        <v>2.0232452108505</v>
       </c>
       <c r="R18">
-        <v>32.196864409437</v>
+        <v>12.139471265103</v>
       </c>
       <c r="S18">
-        <v>0.121375035856936</v>
+        <v>0.04726136483091595</v>
       </c>
       <c r="T18">
-        <v>0.1436463318803493</v>
+        <v>0.03868906754629808</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H19">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I19">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J19">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N19">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O19">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P19">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q19">
-        <v>0.4422368039653334</v>
+        <v>0.1491612517035</v>
       </c>
       <c r="R19">
-        <v>3.980131235688</v>
+        <v>0.8949675102209999</v>
       </c>
       <c r="S19">
-        <v>0.01500421175502256</v>
+        <v>0.003484285689934643</v>
       </c>
       <c r="T19">
-        <v>0.01775735814327953</v>
+        <v>0.002852303671101337</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H20">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I20">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J20">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N20">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O20">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P20">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q20">
-        <v>3.031371509739667</v>
+        <v>2.2757537859375</v>
       </c>
       <c r="R20">
-        <v>18.188229058438</v>
+        <v>9.10301514375</v>
       </c>
       <c r="S20">
-        <v>0.1028483826593542</v>
+        <v>0.05315976005563756</v>
       </c>
       <c r="T20">
-        <v>0.08114679598670534</v>
+        <v>0.02901173865652129</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2339355</v>
+      </c>
+      <c r="H21">
+        <v>0.467871</v>
+      </c>
+      <c r="I21">
+        <v>0.1158956859312148</v>
+      </c>
+      <c r="J21">
+        <v>0.08036858123741962</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8878186666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.663456</v>
+      </c>
+      <c r="O21">
+        <v>0.0418611226651744</v>
+      </c>
+      <c r="P21">
+        <v>0.0494167117519279</v>
+      </c>
+      <c r="Q21">
+        <v>0.207692303696</v>
+      </c>
+      <c r="R21">
+        <v>1.246153822176</v>
+      </c>
+      <c r="S21">
+        <v>0.004851523525131109</v>
+      </c>
+      <c r="T21">
+        <v>0.003971551012920967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.748636</v>
+      </c>
+      <c r="I22">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J22">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.306376666666667</v>
+      </c>
+      <c r="N22">
+        <v>3.91913</v>
+      </c>
+      <c r="O22">
+        <v>0.06159635513812315</v>
+      </c>
+      <c r="P22">
+        <v>0.07271399171915481</v>
+      </c>
+      <c r="Q22">
+        <v>1.19691797852</v>
+      </c>
+      <c r="R22">
+        <v>10.77226180668</v>
+      </c>
+      <c r="S22">
+        <v>0.02795903183269466</v>
+      </c>
+      <c r="T22">
+        <v>0.03433170651040816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H23">
+        <v>2.748636</v>
+      </c>
+      <c r="I23">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J23">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.648731</v>
+      </c>
+      <c r="N23">
+        <v>25.946193</v>
+      </c>
+      <c r="O23">
+        <v>0.4077922698431246</v>
+      </c>
+      <c r="P23">
+        <v>0.4813954277979023</v>
+      </c>
+      <c r="Q23">
+        <v>7.924071126971999</v>
+      </c>
+      <c r="R23">
+        <v>71.316640142748</v>
+      </c>
+      <c r="S23">
+        <v>0.1850998655375656</v>
+      </c>
+      <c r="T23">
+        <v>0.2272894961734892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H24">
+        <v>2.748636</v>
+      </c>
+      <c r="I24">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J24">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.637617</v>
+      </c>
+      <c r="N24">
+        <v>1.912851</v>
+      </c>
+      <c r="O24">
+        <v>0.03006398091472189</v>
+      </c>
+      <c r="P24">
+        <v>0.03549028273468269</v>
+      </c>
+      <c r="Q24">
+        <v>0.5841923468039999</v>
+      </c>
+      <c r="R24">
+        <v>5.257731121236</v>
+      </c>
+      <c r="S24">
+        <v>0.01364625873604647</v>
+      </c>
+      <c r="T24">
+        <v>0.01675663709296215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4136363333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.240909</v>
-      </c>
-      <c r="I21">
-        <v>0.2933933655608953</v>
-      </c>
-      <c r="J21">
-        <v>0.3066551771687498</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.940482</v>
-      </c>
-      <c r="N21">
-        <v>5.821446</v>
-      </c>
-      <c r="O21">
-        <v>0.09281887733605709</v>
-      </c>
-      <c r="P21">
-        <v>0.1050996980488267</v>
-      </c>
-      <c r="Q21">
-        <v>0.8026538593793333</v>
-      </c>
-      <c r="R21">
-        <v>7.223884734414</v>
-      </c>
-      <c r="S21">
-        <v>0.0272324428092097</v>
-      </c>
-      <c r="T21">
-        <v>0.03222936652554508</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H25">
+        <v>2.748636</v>
+      </c>
+      <c r="I25">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J25">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.728125</v>
+      </c>
+      <c r="N25">
+        <v>19.45625</v>
+      </c>
+      <c r="O25">
+        <v>0.4586862714388558</v>
+      </c>
+      <c r="P25">
+        <v>0.3609835859963323</v>
+      </c>
+      <c r="Q25">
+        <v>8.9130248625</v>
+      </c>
+      <c r="R25">
+        <v>53.478149175</v>
+      </c>
+      <c r="S25">
+        <v>0.2082010215640457</v>
+      </c>
+      <c r="T25">
+        <v>0.1704373840094942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.748636</v>
+      </c>
+      <c r="I26">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J26">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.8878186666666666</v>
+      </c>
+      <c r="N26">
+        <v>2.663456</v>
+      </c>
+      <c r="O26">
+        <v>0.0418611226651744</v>
+      </c>
+      <c r="P26">
+        <v>0.0494167117519279</v>
+      </c>
+      <c r="Q26">
+        <v>0.8134301162239999</v>
+      </c>
+      <c r="R26">
+        <v>7.320871046015999</v>
+      </c>
+      <c r="S26">
+        <v>0.01900106684110545</v>
+      </c>
+      <c r="T26">
+        <v>0.0233319613524904</v>
       </c>
     </row>
   </sheetData>
